--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F12-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F12-Gp1ba.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.433243</v>
+        <v>0.5424403333333333</v>
       </c>
       <c r="H2">
-        <v>1.299729</v>
+        <v>1.627321</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.156565</v>
+        <v>2.560821</v>
       </c>
       <c r="N2">
-        <v>3.469695</v>
+        <v>7.682463</v>
       </c>
       <c r="O2">
-        <v>0.1114986879114226</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="P2">
-        <v>0.1114986879114225</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="Q2">
-        <v>0.501073690295</v>
+        <v>1.389092596847</v>
       </c>
       <c r="R2">
-        <v>4.509663212655</v>
+        <v>12.501833371623</v>
       </c>
       <c r="S2">
-        <v>0.1114986879114226</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="T2">
-        <v>0.1114986879114225</v>
+        <v>0.2532146800817753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.433243</v>
+        <v>0.5424403333333333</v>
       </c>
       <c r="H3">
-        <v>1.299729</v>
+        <v>1.627321</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>4.854032</v>
       </c>
       <c r="O3">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="P3">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="Q3">
-        <v>0.7009917952586666</v>
+        <v>0.8776742453635555</v>
       </c>
       <c r="R3">
-        <v>6.308926157328</v>
+        <v>7.899068208271999</v>
       </c>
       <c r="S3">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="T3">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.433243</v>
+        <v>0.5424403333333333</v>
       </c>
       <c r="H4">
-        <v>1.299729</v>
+        <v>1.627321</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.322726666666667</v>
+        <v>0.7202793333333334</v>
       </c>
       <c r="N4">
-        <v>3.96818</v>
+        <v>2.160838</v>
       </c>
       <c r="O4">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="P4">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="Q4">
-        <v>0.5730620692466666</v>
+        <v>0.3907085616664445</v>
       </c>
       <c r="R4">
-        <v>5.157558623219999</v>
+        <v>3.516377054998</v>
       </c>
       <c r="S4">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="T4">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.433243</v>
+        <v>0.5424403333333333</v>
       </c>
       <c r="H5">
-        <v>1.299729</v>
+        <v>1.627321</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.319272333333333</v>
+        <v>1.309726333333333</v>
       </c>
       <c r="N5">
-        <v>6.957816999999999</v>
+        <v>3.929179</v>
       </c>
       <c r="O5">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="P5">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="Q5">
-        <v>1.004808503510333</v>
+        <v>0.7104483888287777</v>
       </c>
       <c r="R5">
-        <v>9.043276531592999</v>
+        <v>6.394035499458999</v>
       </c>
       <c r="S5">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="T5">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.433243</v>
+        <v>0.5424403333333333</v>
       </c>
       <c r="H6">
-        <v>1.299729</v>
+        <v>1.627321</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.741087</v>
+        <v>2.880229333333334</v>
       </c>
       <c r="N6">
-        <v>8.223261000000001</v>
+        <v>8.640688000000001</v>
       </c>
       <c r="O6">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="P6">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="Q6">
-        <v>1.187556755141</v>
+        <v>1.562352559649778</v>
       </c>
       <c r="R6">
-        <v>10.688010796269</v>
+        <v>14.061173036848</v>
       </c>
       <c r="S6">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="T6">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.433243</v>
+        <v>0.5424403333333333</v>
       </c>
       <c r="H7">
-        <v>1.299729</v>
+        <v>1.627321</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.215240666666667</v>
+        <v>1.024174</v>
       </c>
       <c r="N7">
-        <v>3.645722</v>
+        <v>3.072522</v>
       </c>
       <c r="O7">
-        <v>0.1171553175393824</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="P7">
-        <v>0.1171553175393823</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="Q7">
-        <v>0.5264945121486666</v>
+        <v>0.5555532859513332</v>
       </c>
       <c r="R7">
-        <v>4.738450609338</v>
+        <v>4.999979573561999</v>
       </c>
       <c r="S7">
-        <v>0.1171553175393824</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="T7">
-        <v>0.1171553175393823</v>
+        <v>0.1012706049185289</v>
       </c>
     </row>
   </sheetData>
